--- a/ResultadoEleicoesDistritos/PORTO_LOUSADA.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_LOUSADA.xlsx
@@ -597,61 +597,61 @@
         <v>12635</v>
       </c>
       <c r="H2" t="n">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="I2" t="n">
-        <v>1307</v>
+        <v>1206</v>
       </c>
       <c r="J2" t="n">
-        <v>5089</v>
+        <v>5194</v>
       </c>
       <c r="K2" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N2" t="n">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R2" t="n">
+        <v>81</v>
+      </c>
+      <c r="S2" t="n">
+        <v>526</v>
+      </c>
+      <c r="T2" t="n">
+        <v>925</v>
+      </c>
+      <c r="U2" t="n">
         <v>58</v>
       </c>
-      <c r="S2" t="n">
-        <v>577</v>
-      </c>
-      <c r="T2" t="n">
-        <v>935</v>
-      </c>
-      <c r="U2" t="n">
-        <v>74</v>
-      </c>
       <c r="V2" t="n">
-        <v>8130</v>
+        <v>8028</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>8079</v>
+        <v>8187</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="AA2" t="n">
         <v>45</v>
